--- a/biology/Origine et évolution du vivant/Probainognathia/Probainognathia.xlsx
+++ b/biology/Origine et évolution du vivant/Probainognathia/Probainognathia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les probainognatiens (Probainognathia) forment l'un des deux principaux sous-groupes des eucynodontes, les cynognathiens étant l'autre. Ils sont pour la plupart carnivores, bien que certaines espèces puissent avoir évolué vers des traits omnivores. Le probainognathien suspecté d'être le plus ancien et le plus basal connu est Lumkuia datant du Trias moyen (Anisien), d'Afrique du Sud, bien que les probainognathiens ne deviennent proéminents qu'au stade Norien moyen du Trias supérieur[3]. Trois groupes ont survécu à l'extinction Trias-Jurassique : les Tritheledontidae, les Tritylodontidae (ces derniers ayant existé jusqu'au Crétacé comme le montrent les genres Montirictus et Xenocretosuchus) ainsi que les Mammaliaformes, qui donneront plus tard naissance aux mammifères[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les probainognatiens (Probainognathia) forment l'un des deux principaux sous-groupes des eucynodontes, les cynognathiens étant l'autre. Ils sont pour la plupart carnivores, bien que certaines espèces puissent avoir évolué vers des traits omnivores. Le probainognathien suspecté d'être le plus ancien et le plus basal connu est Lumkuia datant du Trias moyen (Anisien), d'Afrique du Sud, bien que les probainognathiens ne deviennent proéminents qu'au stade Norien moyen du Trias supérieur. Trois groupes ont survécu à l'extinction Trias-Jurassique : les Tritheledontidae, les Tritylodontidae (ces derniers ayant existé jusqu'au Crétacé comme le montrent les genres Montirictus et Xenocretosuchus) ainsi que les Mammaliaformes, qui donneront plus tard naissance aux mammifères.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, un cladogramme de Ruta, Botha-Brink, Mitchell et Benton (2013) montrant une hypothèse de relations phylogénétiques entre cynodontes[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme de Ruta, Botha-Brink, Mitchell et Benton (2013) montrant une hypothèse de relations phylogénétiques entre cynodontes :
 </t>
         </is>
       </c>
